--- a/data_generation/Fresh_QA_without_misleading_statements.xlsx
+++ b/data_generation/Fresh_QA_without_misleading_statements.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,31 +752,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Who is the most recent player to win both the PDC World Youth Championship and the PDC World Darts Championship?</t>
+          <t>Who was the winner of American Idol this year?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Luke Littler</t>
+          <t>This year's American Idol is still ongoing, and the final results have not been announced yet.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Luke Littler</t>
+          <t>This year's American Idol is still ongoing, and the final results have not been announced yet.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>155.txt</t>
+          <t>124.txt</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>155.txt</t>
+          <t>124.txt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -787,31 +787,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>What was the Weeknd's last studio album titled?</t>
+          <t>Who is the most recent player to win both the PDC World Youth Championship and the PDC World Darts Championship?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hurry Up Tomorrow</t>
+          <t>Luke Littler</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hurry Up Tomorrow</t>
+          <t>Luke Littler</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>156.txt</t>
+          <t>155.txt</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>156.txt</t>
+          <t>155.txt</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -822,31 +822,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>How many seats are there in the German Bundestag?</t>
+          <t>What was the Weeknd's last studio album titled?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>Hurry Up Tomorrow</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>Hurry Up Tomorrow</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>157.txt</t>
+          <t>156.txt</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>157.txt</t>
+          <t>156.txt</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -857,31 +857,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Who is the President of the United States?</t>
+          <t>How many seats are there in the German Bundestag?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Donald Trump</t>
+          <t>630</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Donald Trump</t>
+          <t>630</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>160.txt</t>
+          <t>157.txt</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>160.txt</t>
+          <t>157.txt</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -892,31 +892,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Who is the current Prime Minister of Japan?</t>
+          <t>Who is the President of the United States?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Shigeru Ishiba</t>
+          <t>Donald Trump</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Shigeru Ishiba</t>
+          <t>Donald Trump</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>162.txt</t>
+          <t>160.txt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>162.txt</t>
+          <t>160.txt</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -927,31 +927,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>How many asteroids have been discovered before impacting Earth?</t>
+          <t>Who is the current Prime Minister of Japan?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Shigeru Ishiba</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>Shigeru Ishiba</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>163.txt</t>
+          <t>162.txt</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>163.txt</t>
+          <t>162.txt</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -962,31 +962,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Which country is the most recent member state of the Schengen Area?</t>
+          <t>How many asteroids have been discovered before impacting Earth?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Bulgaria and Romania</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bulgaria and Romania</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>164.txt</t>
+          <t>163.txt</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>164.txt</t>
+          <t>163.txt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -997,31 +997,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>What is Greg Egan's latest novel?</t>
+          <t>Which country is the most recent member state of the Schengen Area?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Morphotrophic</t>
+          <t>Bulgaria and Romania</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Morphotrophic</t>
+          <t>Bulgaria and Romania</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>165.txt</t>
+          <t>164.txt</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>165.txt</t>
+          <t>164.txt</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1032,31 +1032,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>What is the title of Taylor Swift's most recent studio album?</t>
+          <t>What is Greg Egan's latest novel?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The Tortured Poets Department</t>
+          <t>Morphotrophic</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The Tortured Poets Department</t>
+          <t>Morphotrophic</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>166.txt</t>
+          <t>165.txt</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>166.txt</t>
+          <t>165.txt</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1067,31 +1067,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Who is the current Prime Minister of the United Kingdom?</t>
+          <t>What is the title of Taylor Swift's most recent studio album?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Keir Starmer</t>
+          <t>The Tortured Poets Department</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Keir Starmer</t>
+          <t>The Tortured Poets Department</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>167.txt</t>
+          <t>166.txt</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>167.txt</t>
+          <t>166.txt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1102,31 +1102,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Who is the most recent former Prime Minister of the United Kingdom?</t>
+          <t>Who is the current Prime Minister of the United Kingdom?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rishi Sunak</t>
+          <t>Keir Starmer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rishi Sunak</t>
+          <t>Keir Starmer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>168.txt</t>
+          <t>167.txt</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>168.txt</t>
+          <t>167.txt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1137,31 +1137,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>What is the most recent outbreak declared as a public health emergency of international concern by WHO?</t>
+          <t>Who is the most recent former Prime Minister of the United Kingdom?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Clade I mpox</t>
+          <t>Rishi Sunak</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clade I mpox</t>
+          <t>Rishi Sunak</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>170.txt</t>
+          <t>168.txt</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>170.txt</t>
+          <t>168.txt</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1172,31 +1172,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>How many LA metro rail stations are there?</t>
+          <t>What is the most recent outbreak declared as a public health emergency of international concern by WHO?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Clade I mpox</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>Clade I mpox</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>172.txt</t>
+          <t>170.txt</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>172.txt</t>
+          <t>170.txt</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1207,31 +1207,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Who won the biggest single-tournament payday in tennis history?</t>
+          <t>How many LA metro rail stations are there?</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>173.txt</t>
+          <t>172.txt</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>173.txt</t>
+          <t>172.txt</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1242,31 +1242,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>On what date did Kendrick Lamar release his most recent studio album?</t>
+          <t>Who won the biggest single-tournament payday in tennis history?</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nov 22, 2024</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nov 22, 2024</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>175.txt</t>
+          <t>173.txt</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>175.txt</t>
+          <t>173.txt</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1277,31 +1277,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>What's the latest major version of the .NET?</t>
+          <t>On what date did Kendrick Lamar release his most recent studio album?</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>.NET 9</t>
+          <t>Nov 22, 2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>.NET 9</t>
+          <t>Nov 22, 2024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>180.txt</t>
+          <t>175.txt</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>180.txt</t>
+          <t>175.txt</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1312,31 +1312,31 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>How many food allergens with mandatory labeling are there in the United States?</t>
+          <t>What's the latest major version of the .NET?</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>.NET 9</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>.NET 9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>182.txt</t>
+          <t>180.txt</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>182.txt</t>
+          <t>180.txt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1347,31 +1347,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Who is the X Corp.'s CEO?</t>
+          <t>How many food allergens with mandatory labeling are there in the United States?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Linda Yaccarino</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Linda Yaccarino</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>183.txt</t>
+          <t>182.txt</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>183.txt</t>
+          <t>182.txt</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1382,31 +1382,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>What's the largest stadium by capacity in the world?</t>
+          <t>Who is the X Corp.'s CEO?</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Narendra Modi Stadium</t>
+          <t>Linda Yaccarino</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Narendra Modi Stadium</t>
+          <t>Linda Yaccarino</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>185.txt</t>
+          <t>183.txt</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>185.txt</t>
+          <t>183.txt</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1417,31 +1417,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Who is the chancellor of UMass Amherst?</t>
+          <t>Who has the most followers on Twitter?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Javier Reyes</t>
+          <t>Elon Musk</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Javier Reyes</t>
+          <t>Elon Musk</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>187.txt</t>
+          <t>184.txt</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>187.txt</t>
+          <t>184.txt</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1452,31 +1452,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>What is the most recently released Studio Ghibli film?</t>
+          <t>What's the largest stadium by capacity in the world?</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The Boy and the Heron</t>
+          <t>Narendra Modi Stadium</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The Boy and the Heron</t>
+          <t>Narendra Modi Stadium</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>189.txt</t>
+          <t>185.txt</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>189.txt</t>
+          <t>185.txt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1487,31 +1487,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>What is Croatia's current national currency?</t>
+          <t>Who is the chancellor of UMass Amherst?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Javier Reyes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Euro</t>
+          <t>Javier Reyes</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>192.txt</t>
+          <t>187.txt</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>192.txt</t>
+          <t>187.txt</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1522,31 +1522,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>How many member states are there in the Eurozone?</t>
+          <t>What is the most recently released Studio Ghibli film?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>The Boy and the Heron</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>The Boy and the Heron</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>193.txt</t>
+          <t>189.txt</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>193.txt</t>
+          <t>189.txt</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1557,31 +1557,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>What country became the latest country to adopt the Euro?</t>
+          <t>What is Croatia's current national currency?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Euro</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>196.txt</t>
+          <t>192.txt</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>196.txt</t>
+          <t>192.txt</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1592,31 +1592,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>How many vehicle models does Tesla offer?</t>
+          <t>How many member states are there in the Eurozone?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>198.txt</t>
+          <t>193.txt</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>198.txt</t>
+          <t>193.txt</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1627,31 +1627,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>How many exoplanets have been discovered?</t>
+          <t>What country became the latest country to adopt the Euro?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,867 confirmed exoplanets</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5,867 confirmed exoplanets</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>377.txt</t>
+          <t>196.txt</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>377.txt</t>
+          <t>196.txt</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1662,31 +1662,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>How many tornadoes have been confirmed by Enhanced Fujita rating in the United States so far this year?</t>
+          <t>How many vehicle models does Tesla offer?</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>380.txt</t>
+          <t>198.txt</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>380.txt</t>
+          <t>198.txt</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1697,31 +1697,31 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>384</v>
+        <v>199</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What is the current most popular Wikipedia article of the Week?</t>
+          <t>Which country won the latest World Pastry Cup?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Adolescence (TV series)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Adolescence (TV series)</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>384.txt</t>
+          <t>199.txt</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>384.txt</t>
+          <t>199.txt</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1732,31 +1732,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Who won the most recent Super Bowl?</t>
+          <t>How many exoplanets have been discovered?</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>5,867 confirmed exoplanets</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>5,867 confirmed exoplanets</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>391.txt</t>
+          <t>377.txt</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>391.txt</t>
+          <t>377.txt</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1767,31 +1767,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>What are this year's Coachella festival dates?</t>
+          <t>How many tornadoes have been confirmed by Enhanced Fujita rating in the United States so far this year?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>April 11–13 and April 18–20</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>April 11–13 and April 18–20</t>
+          <t>193</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>393.txt</t>
+          <t>380.txt</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>393.txt</t>
+          <t>380.txt</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1802,31 +1802,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Who were the finalists in the US Open women's singles last year?</t>
+          <t>What is the current most popular Wikipedia article of the Week?</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Aryna Sabalenka and Jessica Pegula</t>
+          <t>Adolescence (TV series)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Aryna Sabalenka and Jessica Pegula</t>
+          <t>Adolescence (TV series)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>396.txt</t>
+          <t>384.txt</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>396.txt</t>
+          <t>384.txt</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1837,31 +1837,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Which broadcast network is this year's Super Bowl broadcaster?</t>
+          <t>Who won the most recent Super Bowl?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fox and Tubi</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fox and Tubi</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>401.txt</t>
+          <t>391.txt</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>401.txt</t>
+          <t>391.txt</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1872,31 +1872,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>What was the highest-grossing film in the United States last year?</t>
+          <t>What are this year's Coachella festival dates?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>April 11–13 and April 18–20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>April 11–13 and April 18–20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>402.txt</t>
+          <t>393.txt</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>402.txt</t>
+          <t>393.txt</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1907,31 +1907,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>What Berber year corresponds to the present year?</t>
+          <t>Which broadcast network is this year's Super Bowl broadcaster?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>Fox and Tubi</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2975</t>
+          <t>Fox and Tubi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>403.txt</t>
+          <t>401.txt</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>403.txt</t>
+          <t>401.txt</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1942,31 +1942,31 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>On what date was last year's State of the Union Address delivered?</t>
+          <t>What was the highest-grossing film in the United States last year?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mar 7, 2024</t>
+          <t>Inside Out 2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mar 7, 2024</t>
+          <t>Inside Out 2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>408.txt</t>
+          <t>402.txt</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>408.txt</t>
+          <t>402.txt</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1977,31 +1977,31 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Who won the latest Grammy Award for Best Jazz Performance?</t>
+          <t>What Berber year corresponds to the present year?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Samara Joy featuring Sullivan Fortner</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Samara Joy featuring Sullivan Fortner</t>
+          <t>2975</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>409.txt</t>
+          <t>403.txt</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>409.txt</t>
+          <t>403.txt</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2012,31 +2012,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>What won the latest Academy Award for Best Animated Feature?</t>
+          <t>On what date was last year's State of the Union Address delivered?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Mar 7, 2024</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Mar 7, 2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>410.txt</t>
+          <t>408.txt</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>410.txt</t>
+          <t>408.txt</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2047,31 +2047,31 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Which movie won the latest Academy Award for Best Picture?</t>
+          <t>Who won the latest Grammy Award for Best Jazz Performance?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Anora</t>
+          <t>Samara Joy featuring Sullivan Fortner</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Anora</t>
+          <t>Samara Joy featuring Sullivan Fortner</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>411.txt</t>
+          <t>409.txt</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>411.txt</t>
+          <t>409.txt</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2082,31 +2082,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Which team is at the top of the latest Premier League season?</t>
+          <t>What won the latest Academy Award for Best Animated Feature?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>420.txt</t>
+          <t>410.txt</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>420.txt</t>
+          <t>410.txt</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2117,31 +2117,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Is Arsenal on the top of the latest Premier League standings?</t>
+          <t>Which movie won the latest Academy Award for Best Picture?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Anora</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Anora</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>421.txt</t>
+          <t>411.txt</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>421.txt</t>
+          <t>411.txt</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2152,31 +2152,31 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Who was the guest of honor at the most recent state dinner hosted by the President of the United States?</t>
+          <t>Which team is at the top of the latest Premier League season?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>William Ruto</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>William Ruto</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>422.txt</t>
+          <t>420.txt</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>422.txt</t>
+          <t>420.txt</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2187,31 +2187,31 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>What album holds the record for the most Spotify streams reached in a single day?</t>
+          <t>Is Arsenal on the top of the latest Premier League standings?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>The Tortured Poets Department</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>The Tortured Poets Department</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>423.txt</t>
+          <t>421.txt</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>423.txt</t>
+          <t>421.txt</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2222,31 +2222,31 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Who is the current ATP top-ranked men's singles tennis player?</t>
+          <t>Who was the guest of honor at the most recent state dinner hosted by the President of the United States?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>William Ruto</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jannik Sinner</t>
+          <t>William Ruto</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>427.txt</t>
+          <t>422.txt</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>427.txt</t>
+          <t>422.txt</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2257,31 +2257,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Who is the number 1 ranked female tennis player in the world?</t>
+          <t>What album holds the record for the most Spotify streams reached in a single day?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aryna Sabalenka</t>
+          <t>The Tortured Poets Department</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aryna Sabalenka</t>
+          <t>The Tortured Poets Department</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>430.txt</t>
+          <t>423.txt</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>430.txt</t>
+          <t>423.txt</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2292,31 +2292,31 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Who is the latest MotoGP World Riders' Champion?</t>
+          <t>Who was the most recent incumbent president worldwide who ran for re-election but was not reelected?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Jorge Martín</t>
+          <t>Muse Bihi Abdi</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jorge Martín</t>
+          <t>Muse Bihi Abdi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>432.txt</t>
+          <t>424.txt</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>432.txt</t>
+          <t>424.txt</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2327,31 +2327,31 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Who won the most recent Time Magazine's Athlete of the Year?</t>
+          <t>Who is the current ATP top-ranked men's singles tennis player?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Caitlin Clark</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Caitlin Clark</t>
+          <t>Jannik Sinner</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>433.txt</t>
+          <t>427.txt</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>433.txt</t>
+          <t>427.txt</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2362,31 +2362,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>What book won the latest Nebula award for Best Novel?</t>
+          <t>Who is the number 1 ranked female tennis player in the world?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>The Saint of Bright Doors</t>
+          <t>Aryna Sabalenka</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The Saint of Bright Doors</t>
+          <t>Aryna Sabalenka</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>435.txt</t>
+          <t>430.txt</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>435.txt</t>
+          <t>430.txt</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2397,31 +2397,31 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Which game won the Spiel des Jahres award most recently?</t>
+          <t>Who is the latest MotoGP World Riders' Champion?</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sky Team</t>
+          <t>Jorge Martín</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sky Team</t>
+          <t>Jorge Martín</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>436.txt</t>
+          <t>432.txt</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>436.txt</t>
+          <t>432.txt</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2432,31 +2432,31 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Which drama series won the most recent Primetime Emmy Award for Outstanding Drama Series?</t>
+          <t>Who won the most recent Time Magazine's Athlete of the Year?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Shōgun</t>
+          <t>Caitlin Clark</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Shōgun</t>
+          <t>Caitlin Clark</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>437.txt</t>
+          <t>433.txt</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>437.txt</t>
+          <t>433.txt</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2467,31 +2467,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>What is the name of the most recent episode of The Lord of the Rings: The Rings of Power?</t>
+          <t>What book won the latest Nebula award for Best Novel?</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Shadow and Flame</t>
+          <t>The Saint of Bright Doors</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Shadow and Flame</t>
+          <t>The Saint of Bright Doors</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>438.txt</t>
+          <t>435.txt</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>438.txt</t>
+          <t>435.txt</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2502,31 +2502,31 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>On what date did the Patriots last play the Miami Dolphins?</t>
+          <t>Which game won the Spiel des Jahres award most recently?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nov 24, 2024</t>
+          <t>Sky Team</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nov 24, 2024</t>
+          <t>Sky Team</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>439.txt</t>
+          <t>436.txt</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>439.txt</t>
+          <t>436.txt</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2537,31 +2537,31 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>What is the next Walt Disney Animation Studios film?</t>
+          <t>Which drama series won the most recent Primetime Emmy Award for Outstanding Drama Series?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Zootopia 2</t>
+          <t>Shōgun</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Zootopia 2</t>
+          <t>Shōgun</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>441.txt</t>
+          <t>437.txt</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>441.txt</t>
+          <t>437.txt</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2572,31 +2572,31 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>What is the most recent Walt Disney Animation Studios's animated film?</t>
+          <t>What is the name of the most recent episode of The Lord of the Rings: The Rings of Power?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Moana 2</t>
+          <t>Shadow and Flame</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Moana 2</t>
+          <t>Shadow and Flame</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>442.txt</t>
+          <t>438.txt</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>442.txt</t>
+          <t>438.txt</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2607,31 +2607,31 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>When did the latest NFL season begin?</t>
+          <t>On what date did the Patriots last play the Miami Dolphins?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sep 5, 2024</t>
+          <t>Nov 24, 2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sep 5, 2024</t>
+          <t>Nov 24, 2024</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>444.txt</t>
+          <t>439.txt</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>444.txt</t>
+          <t>439.txt</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2642,31 +2642,31 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Where will the upcoming International Mathematical Olympiad (IMO) be hosted?</t>
+          <t>What is the next Walt Disney Animation Studios film?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sunshine Coast</t>
+          <t>Zootopia 2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sunshine Coast</t>
+          <t>Zootopia 2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>446.txt</t>
+          <t>441.txt</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>446.txt</t>
+          <t>441.txt</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2677,31 +2677,31 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Who won the latest NBA championship?</t>
+          <t>What is the most recent Walt Disney Animation Studios's animated film?</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Moana 2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Moana 2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>448.txt</t>
+          <t>442.txt</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>448.txt</t>
+          <t>442.txt</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2712,31 +2712,31 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>The longest winning streak in the last season of the Premier League consisted of how many matches?</t>
+          <t>When did the latest NFL season begin?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Sep 5, 2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Sep 5, 2024</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>449.txt</t>
+          <t>444.txt</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>449.txt</t>
+          <t>444.txt</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2747,31 +2747,31 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>How many books has Colleen Hoover published?</t>
+          <t>Where will the upcoming International Mathematical Olympiad (IMO) be hosted?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>26 books</t>
+          <t>Sunshine Coast</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>26 books</t>
+          <t>Sunshine Coast</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>452.txt</t>
+          <t>446.txt</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>452.txt</t>
+          <t>446.txt</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2782,31 +2782,31 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>What is the latest United States jurisdiction to legalize the recreational use of cannabis?</t>
+          <t>Who won the latest NBA championship?</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>453.txt</t>
+          <t>448.txt</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>453.txt</t>
+          <t>448.txt</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2817,31 +2817,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>532</v>
+        <v>449</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>What is the hottest year on record?</t>
+          <t>The longest winning streak in the last season of the Premier League consisted of how many matches?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>532.txt</t>
+          <t>449.txt</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>532.txt</t>
+          <t>449.txt</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2852,31 +2852,31 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>535</v>
+        <v>452</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Who is the current Jeopardy! host?</t>
+          <t>How many books has Colleen Hoover published?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ken Jennings</t>
+          <t>26 books</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ken Jennings</t>
+          <t>26 books</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>535.txt</t>
+          <t>452.txt</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>535.txt</t>
+          <t>452.txt</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2887,31 +2887,31 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>539</v>
+        <v>453</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>What was the largest acquisition deal of a tech company in history?</t>
+          <t>What is the latest United States jurisdiction to legalize the recreational use of cannabis?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Microsoft purchases Activision Blizzard for US$68.7 billion.</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Microsoft purchases Activision Blizzard for US$68.7 billion.</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>539.txt</t>
+          <t>453.txt</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>539.txt</t>
+          <t>453.txt</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2922,31 +2922,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>When is the next Lunar New Year?</t>
+          <t>What is the hottest year on record?</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Feb 17, 2026</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Feb 17, 2026</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>576.txt</t>
+          <t>532.txt</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>576.txt</t>
+          <t>532.txt</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2957,31 +2957,31 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>When does this year's Rosh Hashanah start?</t>
+          <t>Who is the current Jeopardy! host?</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sep 22, 2026</t>
+          <t>Ken Jennings</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sep 22, 2026</t>
+          <t>Ken Jennings</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>577.txt</t>
+          <t>535.txt</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>577.txt</t>
+          <t>535.txt</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2992,31 +2992,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>578</v>
+        <v>536</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>What is the host city of the upcoming International Olympiad in Informatics (IOI)?</t>
+          <t>Who holds the record for most hundreds in one day international men's cricket?</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Virat Kohli</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sucre</t>
+          <t>Virat Kohli</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>578.txt</t>
+          <t>536.txt</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>578.txt</t>
+          <t>536.txt</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3027,31 +3027,31 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>What won the latest Academy Award for Best Animated Short Film?</t>
+          <t>What was the largest acquisition deal of a tech company in history?</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>In the Shadow of the Cypress</t>
+          <t>Microsoft purchases Activision Blizzard for US$68.7 billion.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>In the Shadow of the Cypress</t>
+          <t>Microsoft purchases Activision Blizzard for US$68.7 billion.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>579.txt</t>
+          <t>539.txt</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>579.txt</t>
+          <t>539.txt</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3062,31 +3062,31 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>What is the name of the most recent hurricane that affected the Southeastern Coast of the United States?</t>
+          <t>When is the next Lunar New Year?</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Milton</t>
+          <t>Feb 17, 2026</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Milton</t>
+          <t>Feb 17, 2026</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>586.txt</t>
+          <t>576.txt</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>586.txt</t>
+          <t>576.txt</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3097,31 +3097,31 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>What is King Gizzard’s most recent studio album?</t>
+          <t>When does this year's Rosh Hashanah start?</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Flight b741</t>
+          <t>Sep 22, 2026</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Flight b741</t>
+          <t>Sep 22, 2026</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>587.txt</t>
+          <t>577.txt</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>587.txt</t>
+          <t>577.txt</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3132,31 +3132,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Which comedy series won the most recent Primetime Emmy Award for Outstanding Comedy Series?</t>
+          <t>What is the host city of the upcoming International Olympiad in Informatics (IOI)?</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Hacks (Season 3)</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hacks (Season 3)</t>
+          <t>Sucre</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>588.txt</t>
+          <t>578.txt</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>588.txt</t>
+          <t>578.txt</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3167,31 +3167,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>What institution won the most recent ACM-ICPC World Finals?</t>
+          <t>What won the latest Academy Award for Best Animated Short Film?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Peking University</t>
+          <t>In the Shadow of the Cypress</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Peking University</t>
+          <t>In the Shadow of the Cypress</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>589.txt</t>
+          <t>579.txt</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>589.txt</t>
+          <t>579.txt</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3202,34 +3202,209 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
+        <v>580</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>What is the next Columbia Pictures film?</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Karate Kid: Legends</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Karate Kid: Legends</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>580.txt</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>580.txt</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['test1', 'test2', 'test3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>586</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>What is the name of the most recent hurricane that affected the Southeastern Coast of the United States?</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Milton</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Milton</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>586.txt</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>586.txt</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['test1', 'test2', 'test3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>587</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>What is King Gizzard’s most recent studio album?</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Flight b741</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Flight b741</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>587.txt</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>587.txt</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['test1', 'test2', 'test3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>588</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Which comedy series won the most recent Primetime Emmy Award for Outstanding Comedy Series?</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Hacks (Season 3)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Hacks (Season 3)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>588.txt</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>588.txt</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['test1', 'test2', 'test3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>589</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>What institution won the most recent ACM-ICPC World Finals?</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Peking University</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Peking University</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>589.txt</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>589.txt</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['test1', 'test2', 'test3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
         <v>590</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Who won the most recent season of America's Got Talent?</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Richard Goodall</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Richard Goodall</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>590.txt</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>590.txt</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['test1', 'test2', 'test3']</t>
         </is>
